--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T11:47:09+00:00</t>
+    <t>2024-09-10T12:02:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:02:36+00:00</t>
+    <t>2024-09-10T12:10:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$104</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="620">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.6</t>
+    <t>0.9.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-10T12:10:45+00:00</t>
+    <t>2024-09-11T05:52:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -910,7 +910,10 @@
     <t>Use AuditEvent.agent.purposeOfUse when you know that it is specific to the agent, otherwise use AuditEvent.purposeOfEvent. For example, during a machine-to-machine transfer it might not be obvious to the audit system who caused the event, but it does know why.</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/no-basis-auditevent-purpose-of-event</t>
+    <t>The reason the activity took place.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -959,6 +962,10 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -1065,6 +1072,45 @@
   </si>
   <si>
     <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent.coding:PURPOSE_OF_USE_VALUESET</t>
+  </si>
+  <si>
+    <t>PURPOSE_OF_USE_VALUESET</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent.coding:DIPS_DECISIONTEMPLATE</t>
+  </si>
+  <si>
+    <t>DIPS_DECISIONTEMPLATE</t>
+  </si>
+  <si>
+    <t>DIPS Decision template terminology</t>
+  </si>
+  <si>
+    <t>DIPS</t>
+  </si>
+  <si>
+    <t>https://terminology.dips.com/decisiontemplate</t>
+  </si>
+  <si>
+    <t>AuditEvent.purposeOfEvent.coding:VOLVEN_9151</t>
+  </si>
+  <si>
+    <t>VOLVEN_9151</t>
+  </si>
+  <si>
+    <t>Volven 9151</t>
+  </si>
+  <si>
+    <t>Tjenestetype i helse- og omsorgstjenesten (OID=9151)</t>
+  </si>
+  <si>
+    <t>Volven</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.578.1.12.4.1.1.9151</t>
   </si>
   <si>
     <t>AuditEvent.purposeOfEvent.text</t>
@@ -1463,12 +1509,6 @@
   </si>
   <si>
     <t>Use AuditEvent.agent.purposeOfUse when you know that is specific to the agent, otherwise use AuditEvent.purposeOfEvent. For example, during a machine-to-machine transfer it might not be obvious to the audit system who caused the event, but it does know why.</t>
-  </si>
-  <si>
-    <t>The reason the activity took place.</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-PurposeOfUse</t>
   </si>
   <si>
     <t>*.reasonCode [ActHealthInformationPurposeOfUseReason codes/v:PurposeOfUse
@@ -2206,7 +2246,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP101"/>
+  <dimension ref="A1:AP104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2217,7 +2257,7 @@
   <cols>
     <col min="1" max="1" width="86.2109375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.71484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="28.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2240,7 +2280,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="75.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.78125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -7577,9 +7617,11 @@
       <c r="X45" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y45" s="2"/>
+      <c r="Y45" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="Z45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7612,30 +7654,30 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7750,10 +7792,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7779,10 +7821,10 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>219</v>
@@ -7870,10 +7912,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7899,16 +7941,16 @@
         <v>223</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7945,19 +7987,17 @@
         <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7975,7 +8015,7 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7992,10 +8032,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8110,10 +8150,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8139,10 +8179,10 @@
         <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>219</v>
@@ -8230,10 +8270,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8259,16 +8299,16 @@
         <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8317,7 +8357,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8335,7 +8375,7 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -8352,10 +8392,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8381,13 +8421,13 @@
         <v>160</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8437,7 +8477,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8455,7 +8495,7 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -8472,10 +8512,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8501,14 +8541,14 @@
         <v>110</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8557,7 +8597,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8575,7 +8615,7 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -8592,10 +8632,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8621,14 +8661,14 @@
         <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8677,7 +8717,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8695,7 +8735,7 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -8712,10 +8752,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8741,16 +8781,16 @@
         <v>200</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8799,7 +8839,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8817,7 +8857,7 @@
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8834,12 +8874,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8860,19 +8902,19 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8897,13 +8939,11 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8921,13 +8961,13 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
@@ -8939,7 +8979,7 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8956,21 +8996,23 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="D57" t="s" s="2">
-        <v>348</v>
+        <v>20</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>20</v>
@@ -8979,22 +9021,22 @@
         <v>20</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>349</v>
+        <v>223</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -9019,13 +9061,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>20</v>
+        <v>347</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>20</v>
+        <v>348</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -9043,10 +9085,10 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>80</v>
@@ -9058,32 +9100,34 @@
         <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>354</v>
+        <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>356</v>
+        <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>358</v>
+        <v>20</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>359</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9101,19 +9145,23 @@
         <v>20</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>161</v>
+        <v>351</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9137,13 +9185,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>20</v>
+        <v>353</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>20</v>
+        <v>354</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -9161,25 +9209,25 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>164</v>
+        <v>307</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -9196,21 +9244,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -9219,21 +9267,23 @@
         <v>20</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>298</v>
+        <v>357</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -9281,25 +9331,25 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>164</v>
+        <v>361</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
@@ -9327,7 +9377,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>80</v>
@@ -9336,25 +9386,25 @@
         <v>20</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>135</v>
+        <v>364</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>219</v>
+        <v>367</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>220</v>
+        <v>368</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9403,10 +9453,10 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>80</v>
@@ -9415,33 +9465,33 @@
         <v>20</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>20</v>
+        <v>369</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>133</v>
+        <v>370</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>20</v>
+        <v>371</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>20</v>
+        <v>372</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>20</v>
+        <v>373</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>20</v>
+        <v>374</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9464,13 +9514,13 @@
         <v>20</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>284</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>368</v>
+        <v>161</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>369</v>
+        <v>162</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9497,13 +9547,13 @@
         <v>20</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>370</v>
+        <v>20</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>371</v>
+        <v>20</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -9521,7 +9571,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>367</v>
+        <v>163</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9533,37 +9583,37 @@
         <v>20</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>372</v>
+        <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>373</v>
+        <v>164</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>376</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9582,20 +9632,18 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>378</v>
+        <v>298</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
       </c>
@@ -9619,13 +9667,13 @@
         <v>20</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>383</v>
+        <v>20</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>20</v>
@@ -9643,7 +9691,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>377</v>
+        <v>168</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9655,68 +9703,68 @@
         <v>20</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>385</v>
+        <v>164</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>375</v>
+        <v>20</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>386</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J63" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>389</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>392</v>
+        <v>219</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>393</v>
+        <v>220</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9765,45 +9813,45 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>394</v>
+        <v>20</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>396</v>
+        <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>357</v>
+        <v>20</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>397</v>
+        <v>20</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>398</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9826,18 +9874,16 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="N64" s="2"/>
-      <c r="O64" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
       </c>
@@ -9861,13 +9907,13 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9885,7 +9931,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9900,30 +9946,30 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>20</v>
+        <v>387</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>20</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9934,7 +9980,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>20</v>
@@ -9946,17 +9992,19 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O65" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -9981,13 +10029,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -10005,13 +10053,13 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>20</v>
@@ -10023,35 +10071,35 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>20</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>20</v>
+        <v>403</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>90</v>
@@ -10066,19 +10114,19 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>200</v>
+        <v>404</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10127,10 +10175,10 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>90</v>
@@ -10142,30 +10190,30 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>20</v>
+        <v>409</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>20</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10188,16 +10236,18 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>419</v>
+        <v>160</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
+      <c r="O67" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
       </c>
@@ -10245,7 +10295,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10260,30 +10310,30 @@
         <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>20</v>
+        <v>419</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>426</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10294,7 +10344,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -10306,19 +10356,17 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10367,13 +10415,13 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
@@ -10385,27 +10433,27 @@
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>20</v>
+        <v>412</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>434</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10413,7 +10461,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>90</v>
@@ -10425,20 +10473,22 @@
         <v>20</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>429</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10463,13 +10513,13 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>439</v>
+        <v>20</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>440</v>
+        <v>20</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10487,10 +10537,10 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>90</v>
@@ -10505,13 +10555,13 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>424</v>
+        <v>372</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10522,10 +10572,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10548,13 +10598,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>349</v>
+        <v>434</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10605,7 +10655,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10620,30 +10670,30 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>20</v>
+        <v>437</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>20</v>
+        <v>440</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>20</v>
+        <v>441</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10654,7 +10704,7 @@
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -10666,16 +10716,20 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>161</v>
+        <v>443</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10723,56 +10777,56 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>163</v>
+        <v>442</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>164</v>
+        <v>447</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>20</v>
+        <v>448</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>20</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>20</v>
@@ -10784,18 +10838,18 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>297</v>
+        <v>451</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O72" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
       </c>
@@ -10819,13 +10873,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>20</v>
+        <v>454</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>20</v>
+        <v>455</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10843,31 +10897,31 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>168</v>
+        <v>450</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>164</v>
+        <v>456</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>20</v>
+        <v>457</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>20</v>
@@ -10878,46 +10932,42 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>135</v>
+        <v>364</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>364</v>
+        <v>459</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>20</v>
       </c>
@@ -10965,31 +11015,31 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>366</v>
+        <v>458</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>133</v>
+        <v>461</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -11000,10 +11050,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11029,17 +11079,13 @@
         <v>160</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>451</v>
+        <v>161</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>20</v>
       </c>
@@ -11087,7 +11133,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>450</v>
+        <v>163</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11099,22 +11145,22 @@
         <v>20</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>455</v>
+        <v>164</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>456</v>
+        <v>20</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>424</v>
+        <v>20</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>457</v>
+        <v>20</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>20</v>
@@ -11122,21 +11168,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>20</v>
@@ -11148,18 +11194,18 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>459</v>
+        <v>298</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>20</v>
       </c>
@@ -11183,13 +11229,13 @@
         <v>20</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>462</v>
+        <v>20</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>463</v>
+        <v>20</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>20</v>
@@ -11207,31 +11253,31 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>458</v>
+        <v>168</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>455</v>
+        <v>164</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>464</v>
+        <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>424</v>
+        <v>20</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11242,14 +11288,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11262,24 +11308,26 @@
         <v>20</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>284</v>
+        <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>466</v>
+        <v>379</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>467</v>
+        <v>380</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
       </c>
@@ -11303,13 +11351,13 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>469</v>
+        <v>20</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>470</v>
+        <v>20</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -11327,7 +11375,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>465</v>
+        <v>381</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11339,22 +11387,22 @@
         <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>471</v>
+        <v>133</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>292</v>
+        <v>20</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>472</v>
+        <v>20</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>20</v>
@@ -11362,10 +11410,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11373,7 +11421,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>90</v>
@@ -11388,19 +11436,19 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>349</v>
+        <v>160</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11449,10 +11497,10 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>90</v>
@@ -11467,16 +11515,16 @@
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>20</v>
+        <v>472</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>20</v>
@@ -11484,10 +11532,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11510,16 +11558,18 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>161</v>
+        <v>474</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>162</v>
+        <v>475</v>
       </c>
       <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
       </c>
@@ -11543,13 +11593,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>20</v>
+        <v>246</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>20</v>
+        <v>477</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>20</v>
+        <v>478</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11567,7 +11617,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>163</v>
+        <v>473</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11579,19 +11629,19 @@
         <v>20</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>164</v>
+        <v>470</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>20</v>
+        <v>479</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>20</v>
+        <v>439</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
@@ -11602,14 +11652,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11628,16 +11678,16 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>135</v>
+        <v>284</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>297</v>
+        <v>481</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>298</v>
+        <v>482</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>219</v>
+        <v>483</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11663,13 +11713,13 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>20</v>
+        <v>289</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
@@ -11687,7 +11737,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>168</v>
+        <v>480</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11699,22 +11749,22 @@
         <v>20</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>164</v>
+        <v>484</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>20</v>
+        <v>293</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>20</v>
+        <v>485</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>20</v>
@@ -11722,45 +11772,45 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>135</v>
+        <v>364</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>364</v>
+        <v>487</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>365</v>
+        <v>488</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>219</v>
+        <v>489</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>220</v>
+        <v>490</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11809,31 +11859,31 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>133</v>
+        <v>491</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>20</v>
+        <v>492</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>20</v>
+        <v>493</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -11844,10 +11894,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11873,15 +11923,13 @@
         <v>160</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>485</v>
+        <v>161</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>486</v>
+        <v>162</v>
       </c>
       <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>487</v>
-      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>20</v>
       </c>
@@ -11929,7 +11977,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>484</v>
+        <v>163</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11941,19 +11989,19 @@
         <v>20</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>488</v>
+        <v>164</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>489</v>
+        <v>20</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>20</v>
@@ -11964,21 +12012,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>491</v>
+        <v>216</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>20</v>
@@ -11987,21 +12035,21 @@
         <v>20</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>492</v>
+        <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>493</v>
+        <v>298</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>495</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>20</v>
       </c>
@@ -12049,31 +12097,31 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>490</v>
+        <v>168</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>395</v>
+        <v>164</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>496</v>
+        <v>20</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>20</v>
@@ -12084,14 +12132,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12104,23 +12152,25 @@
         <v>20</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>498</v>
+        <v>379</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O83" t="s" s="2">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -12145,13 +12195,13 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>501</v>
+        <v>20</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>502</v>
+        <v>20</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -12169,7 +12219,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>497</v>
+        <v>381</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12181,19 +12231,19 @@
         <v>20</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>503</v>
+        <v>133</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>504</v>
+        <v>20</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>480</v>
+        <v>20</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>20</v>
@@ -12204,21 +12254,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>506</v>
+        <v>20</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>20</v>
@@ -12230,19 +12280,17 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>349</v>
+        <v>160</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12291,53 +12339,53 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>511</v>
+        <v>102</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>514</v>
+        <v>20</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>515</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>20</v>
+        <v>504</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>90</v>
@@ -12349,19 +12397,21 @@
         <v>20</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>160</v>
+        <v>505</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>161</v>
+        <v>506</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>162</v>
+        <v>507</v>
       </c>
       <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
       </c>
@@ -12409,10 +12459,10 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>163</v>
+        <v>503</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>90</v>
@@ -12421,19 +12471,19 @@
         <v>20</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>164</v>
+        <v>410</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>20</v>
+        <v>509</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>20</v>
+        <v>493</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>20</v>
@@ -12444,14 +12494,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12470,18 +12520,18 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>297</v>
+        <v>511</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>513</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
       </c>
@@ -12505,13 +12555,13 @@
         <v>20</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>20</v>
+        <v>514</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>20</v>
+        <v>515</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>20</v>
@@ -12529,7 +12579,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12541,19 +12591,19 @@
         <v>20</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>164</v>
+        <v>516</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>20</v>
+        <v>517</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>20</v>
+        <v>493</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
@@ -12571,7 +12621,7 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>363</v>
+        <v>519</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12584,25 +12634,25 @@
         <v>20</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>135</v>
+        <v>364</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>364</v>
+        <v>520</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>365</v>
+        <v>521</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>219</v>
+        <v>522</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>220</v>
+        <v>523</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12651,7 +12701,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>366</v>
+        <v>518</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12663,33 +12713,33 @@
         <v>20</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>141</v>
+        <v>524</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>133</v>
+        <v>525</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>20</v>
+        <v>526</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>20</v>
+        <v>233</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>20</v>
+        <v>527</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>20</v>
+        <v>528</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12709,16 +12759,16 @@
         <v>20</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>520</v>
+        <v>160</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>521</v>
+        <v>161</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>522</v>
+        <v>162</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12769,7 +12819,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>519</v>
+        <v>163</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12781,44 +12831,44 @@
         <v>20</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>395</v>
+        <v>164</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>523</v>
+        <v>20</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>524</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>20</v>
@@ -12830,20 +12880,18 @@
         <v>20</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>526</v>
+        <v>298</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>527</v>
+        <v>299</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>529</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>20</v>
       </c>
@@ -12867,13 +12915,13 @@
         <v>20</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>530</v>
+        <v>20</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>531</v>
+        <v>20</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>20</v>
@@ -12891,78 +12939,80 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>525</v>
+        <v>168</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>532</v>
+        <v>164</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>533</v>
+        <v>20</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>233</v>
+        <v>20</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>534</v>
+        <v>20</v>
       </c>
       <c r="AP89" t="s" s="2">
-        <v>535</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>20</v>
+        <v>378</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>223</v>
+        <v>135</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>537</v>
+        <v>379</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O90" t="s" s="2">
-        <v>539</v>
+        <v>220</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>20</v>
@@ -12987,13 +13037,13 @@
         <v>20</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>540</v>
+        <v>20</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>541</v>
+        <v>20</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
@@ -13011,34 +13061,34 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>536</v>
+        <v>381</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>542</v>
+        <v>133</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>543</v>
+        <v>20</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>544</v>
+        <v>20</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>545</v>
+        <v>20</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>20</v>
@@ -13046,10 +13096,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13069,23 +13119,19 @@
         <v>20</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>223</v>
+        <v>533</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>550</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>20</v>
       </c>
@@ -13109,13 +13155,13 @@
         <v>20</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>548</v>
+        <v>20</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>551</v>
+        <v>20</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>20</v>
@@ -13133,7 +13179,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13151,27 +13197,27 @@
         <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>552</v>
+        <v>410</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>553</v>
+        <v>536</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>544</v>
+        <v>233</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>545</v>
+        <v>20</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>554</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13182,7 +13228,7 @@
         <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>20</v>
@@ -13197,16 +13243,16 @@
         <v>223</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>557</v>
+        <v>540</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>558</v>
+        <v>541</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -13234,10 +13280,10 @@
         <v>227</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>560</v>
+        <v>543</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>561</v>
+        <v>544</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
@@ -13255,13 +13301,13 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>20</v>
@@ -13273,27 +13319,27 @@
         <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>563</v>
+        <v>546</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>544</v>
+        <v>233</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>20</v>
+        <v>547</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>20</v>
+        <v>548</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13313,22 +13359,20 @@
         <v>20</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13353,13 +13397,13 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>20</v>
+        <v>553</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>20</v>
+        <v>554</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -13377,7 +13421,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13386,7 +13430,7 @@
         <v>90</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>569</v>
+        <v>20</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>102</v>
@@ -13395,16 +13439,16 @@
         <v>20</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>20</v>
@@ -13412,10 +13456,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13438,17 +13482,19 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>160</v>
+        <v>223</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O94" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13473,13 +13519,13 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>20</v>
+        <v>561</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>20</v>
+        <v>564</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -13497,7 +13543,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13515,27 +13561,27 @@
         <v>20</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>20</v>
+        <v>558</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>20</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13546,7 +13592,7 @@
         <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>20</v>
@@ -13555,22 +13601,22 @@
         <v>20</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>579</v>
+        <v>223</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13595,13 +13641,13 @@
         <v>20</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>20</v>
+        <v>573</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>20</v>
+        <v>574</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>20</v>
@@ -13619,16 +13665,16 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>569</v>
+        <v>20</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>102</v>
@@ -13637,13 +13683,13 @@
         <v>20</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>20</v>
@@ -13654,10 +13700,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13668,7 +13714,7 @@
         <v>79</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>20</v>
@@ -13677,20 +13723,22 @@
         <v>20</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>349</v>
+        <v>160</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>579</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>580</v>
+      </c>
       <c r="O96" t="s" s="2">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13739,16 +13787,16 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>20</v>
+        <v>582</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>102</v>
@@ -13757,16 +13805,16 @@
         <v>20</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>544</v>
+        <v>557</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>20</v>
+        <v>585</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>20</v>
@@ -13774,10 +13822,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13803,13 +13851,15 @@
         <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>161</v>
+        <v>587</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>162</v>
+        <v>588</v>
       </c>
       <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>581</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
       </c>
@@ -13857,7 +13907,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>163</v>
+        <v>586</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13869,19 +13919,19 @@
         <v>20</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>164</v>
+        <v>589</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>20</v>
+        <v>590</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>20</v>
+        <v>557</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>20</v>
@@ -13892,21 +13942,21 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>20</v>
@@ -13915,21 +13965,23 @@
         <v>20</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>135</v>
+        <v>592</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>297</v>
+        <v>593</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>298</v>
+        <v>594</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O98" s="2"/>
+        <v>595</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="P98" t="s" s="2">
         <v>20</v>
       </c>
@@ -13977,31 +14029,31 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>168</v>
+        <v>591</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>20</v>
+        <v>582</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>164</v>
+        <v>597</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>20</v>
+        <v>598</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>20</v>
+        <v>557</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>20</v>
@@ -14012,14 +14064,14 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>363</v>
+        <v>20</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14032,25 +14084,23 @@
         <v>20</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>135</v>
+        <v>364</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>364</v>
+        <v>600</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>220</v>
+        <v>602</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>20</v>
@@ -14099,7 +14149,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>366</v>
+        <v>599</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14111,19 +14161,19 @@
         <v>20</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>133</v>
+        <v>603</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>20</v>
+        <v>604</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>20</v>
+        <v>557</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>20</v>
@@ -14134,10 +14184,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14145,7 +14195,7 @@
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s" s="2">
         <v>90</v>
@@ -14163,10 +14213,10 @@
         <v>160</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>596</v>
+        <v>161</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>597</v>
+        <v>162</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14217,10 +14267,10 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>595</v>
+        <v>163</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>90</v>
@@ -14229,19 +14279,19 @@
         <v>20</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>503</v>
+        <v>164</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>598</v>
+        <v>20</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>544</v>
+        <v>20</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>20</v>
@@ -14252,21 +14302,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>20</v>
@@ -14278,20 +14328,18 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>600</v>
+        <v>135</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>601</v>
+        <v>298</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>602</v>
+        <v>299</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>604</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>20</v>
       </c>
@@ -14339,41 +14387,403 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>599</v>
+        <v>168</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ101" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="AK101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AP101" t="s" s="2">
+      <c r="AK103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP104" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP101">
+  <autoFilter ref="A1:AP104">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14383,7 +14793,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI100">
+  <conditionalFormatting sqref="A2:AI103">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T05:52:58+00:00</t>
+    <t>2024-09-11T06:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
+++ b/currentbuild/StructureDefinition-no-domain-Trustframework-Auditevent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3991" uniqueCount="621">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.7</t>
+    <t>0.9.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-11T06:02:16+00:00</t>
+    <t>2024-11-07T07:29:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -504,10 +504,10 @@
 </t>
   </si>
   <si>
-    <t>toa, care-relationship:decision-ref:id, :description, :user-selected</t>
-  </si>
-  <si>
-    <t>This extension is used to carry attributes from Norwegian Trust Framework (Nasjonalt tillitsrammeverk) which there exists no natural element for.</t>
+    <t>toa, care_relationship:decision_ref:id, :description, :user_selected</t>
+  </si>
+  <si>
+    <t>This extensins carries information about a 'user session' defined as access to health information for a patient or group where the access criteria are the same and access occurs from a single logical system within a given time window.</t>
   </si>
   <si>
     <t>AuditEvent.extension:_careRelationMetaData.id</t>
@@ -538,6 +538,9 @@
     <t>AuditEvent.extension.extension</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
@@ -550,7 +553,7 @@
     <t>decision-ref-id</t>
   </si>
   <si>
-    <t>care-relationship:decision-ref:id</t>
+    <t>care_relationship:decision_ref:id</t>
   </si>
   <si>
     <t>AuditEvent.extension:_careRelationMetaData.extension:decision-ref-id.id</t>
@@ -601,7 +604,7 @@
     <t>decision-ref-description</t>
   </si>
   <si>
-    <t>care-relationship:decision-ref:description</t>
+    <t>care_relationship:decision_ref:description</t>
   </si>
   <si>
     <t>AuditEvent.extension:_careRelationMetaData.extension:decision-ref-description.id</t>
@@ -622,7 +625,7 @@
     <t>decision-ref-user-selected</t>
   </si>
   <si>
-    <t>care-relationship:decision-ref:user-selected</t>
+    <t>care_relationship:decision_ref:user_selected</t>
   </si>
   <si>
     <t>AuditEvent.extension:_careRelationMetaData.extension:decision-ref-user-selected.id</t>
@@ -901,7 +904,7 @@
 </t>
   </si>
   <si>
-    <t>care-relationship:purpose-of-use:code, :system and :text and care-relationship:purpose-of-use-details:code, :system and :text</t>
+    <t>care_relationship:purpose_of_use:code, :system and :text and care_relationship:purpose_of_use_details:code, :system and :text</t>
   </si>
   <si>
     <t>The purposeOfUse (reason) that was used during the event being recorded.</t>
@@ -981,7 +984,7 @@
     <t>AuditEvent.purposeOfEvent.coding.system</t>
   </si>
   <si>
-    <t>care-relationship:purpose-of-use:system and care-relationship:purpose-of-use-details:system</t>
+    <t>care_relationship:purpose_of_use:system and care_relationship:purpose_of_use_details:system</t>
   </si>
   <si>
     <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
@@ -1020,7 +1023,7 @@
     <t>AuditEvent.purposeOfEvent.coding.code</t>
   </si>
   <si>
-    <t>care-relationship:purpose-of-use:code and care-relationship:purpose-of-use-details:code</t>
+    <t>care_relationship:purpose_of_use:code and care_relationship:purpose_of_use_details:code</t>
   </si>
   <si>
     <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
@@ -1038,7 +1041,7 @@
     <t>AuditEvent.purposeOfEvent.coding.display</t>
   </si>
   <si>
-    <t>care-relationship:purpose-of-use:text and care-relationship:purpose-of-use-details:text</t>
+    <t>care_relationship:purpose_of_use:text and care_relationship:purpose_of_use_details:text</t>
   </si>
   <si>
     <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
@@ -1086,7 +1089,7 @@
     <t>DIPS_DECISIONTEMPLATE</t>
   </si>
   <si>
-    <t>DIPS Decision template terminology</t>
+    <t>DIPS Decision template terminology (see https://hl7norway.github.io/AuditEvent/currentbuild/CodeSystem-decisiontemplate.html)</t>
   </si>
   <si>
     <t>DIPS</t>
@@ -1266,7 +1269,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-doc-Trustframework-PractitioneRole)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-domain-Trustframework-PractitioneRole)
 </t>
   </si>
   <si>
@@ -3277,7 +3280,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>80</v>
@@ -3515,7 +3518,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>90</v>
@@ -3871,7 +3874,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3934,7 +3937,7 @@
         <v>138</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>20</v>
@@ -3943,7 +3946,7 @@
         <v>139</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3978,20 +3981,20 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>166</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>90</v>
@@ -4009,7 +4012,7 @@
         <v>135</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>137</v>
@@ -4063,7 +4066,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -4098,10 +4101,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4216,10 +4219,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4290,7 +4293,7 @@
         <v>138</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
@@ -4299,7 +4302,7 @@
         <v>139</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4334,10 +4337,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4363,13 +4366,13 @@
         <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4377,7 +4380,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>20</v>
@@ -4419,7 +4422,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>90</v>
@@ -4454,10 +4457,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4483,10 +4486,10 @@
         <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4537,7 +4540,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4572,20 +4575,20 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>166</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>90</v>
@@ -4603,7 +4606,7 @@
         <v>135</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>137</v>
@@ -4657,7 +4660,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4692,10 +4695,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4810,10 +4813,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4884,7 +4887,7 @@
         <v>138</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>20</v>
@@ -4893,7 +4896,7 @@
         <v>139</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4928,10 +4931,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4957,13 +4960,13 @@
         <v>104</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4971,7 +4974,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>20</v>
@@ -5013,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>90</v>
@@ -5048,10 +5051,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5077,10 +5080,10 @@
         <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -5131,7 +5134,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5166,20 +5169,20 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>166</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>90</v>
@@ -5197,7 +5200,7 @@
         <v>135</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>137</v>
@@ -5251,7 +5254,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5286,10 +5289,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5404,10 +5407,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5478,7 +5481,7 @@
         <v>138</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>20</v>
@@ -5487,7 +5490,7 @@
         <v>139</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5522,10 +5525,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5551,13 +5554,13 @@
         <v>104</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5565,7 +5568,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>20</v>
@@ -5607,7 +5610,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>90</v>
@@ -5642,10 +5645,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5668,13 +5671,13 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5725,7 +5728,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5760,13 +5763,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>166</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>20</v>
@@ -5791,7 +5794,7 @@
         <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>137</v>
@@ -5845,7 +5848,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5880,10 +5883,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5998,10 +6001,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6072,7 +6075,7 @@
         <v>138</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>20</v>
@@ -6081,7 +6084,7 @@
         <v>139</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6116,10 +6119,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6145,13 +6148,13 @@
         <v>104</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6159,7 +6162,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>20</v>
@@ -6201,7 +6204,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>90</v>
@@ -6236,10 +6239,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6262,13 +6265,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6319,7 +6322,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6354,10 +6357,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6383,13 +6386,13 @@
         <v>104</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6397,7 +6400,7 @@
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>20</v>
@@ -6439,7 +6442,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>90</v>
@@ -6474,10 +6477,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6500,13 +6503,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6557,7 +6560,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6592,14 +6595,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6621,16 +6624,16 @@
         <v>135</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6679,7 +6682,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6714,10 +6717,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6740,17 +6743,17 @@
         <v>91</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6775,13 +6778,13 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6799,7 +6802,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>90</v>
@@ -6814,19 +6817,19 @@
         <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>20</v>
@@ -6834,10 +6837,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6860,17 +6863,17 @@
         <v>91</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6895,13 +6898,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6919,7 +6922,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6937,13 +6940,13 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6954,10 +6957,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6983,14 +6986,14 @@
         <v>110</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -7015,13 +7018,13 @@
         <v>20</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>20</v>
@@ -7039,7 +7042,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7057,13 +7060,13 @@
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -7074,10 +7077,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7100,16 +7103,16 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7159,7 +7162,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7174,30 +7177,30 @@
         <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7220,19 +7223,19 @@
         <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7281,7 +7284,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>90</v>
@@ -7299,27 +7302,27 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7345,13 +7348,13 @@
         <v>110</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7377,13 +7380,13 @@
         <v>20</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7401,7 +7404,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7419,13 +7422,13 @@
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7436,10 +7439,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7465,10 +7468,10 @@
         <v>160</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7519,7 +7522,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7537,13 +7540,13 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7554,10 +7557,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7580,16 +7583,16 @@
         <v>91</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7615,13 +7618,13 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>20</v>
@@ -7639,7 +7642,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7654,30 +7657,30 @@
         <v>102</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7792,14 +7795,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7821,13 +7824,13 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7868,7 +7871,7 @@
         <v>138</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>20</v>
@@ -7877,7 +7880,7 @@
         <v>139</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7912,10 +7915,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7923,7 +7926,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>80</v>
@@ -7938,19 +7941,19 @@
         <v>91</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7987,7 +7990,7 @@
         <v>20</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
@@ -7997,7 +8000,7 @@
         <v>139</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8015,7 +8018,7 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -8032,10 +8035,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8150,14 +8153,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8179,13 +8182,13 @@
         <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8226,7 +8229,7 @@
         <v>138</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>20</v>
@@ -8235,7 +8238,7 @@
         <v>139</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8270,10 +8273,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8299,16 +8302,16 @@
         <v>104</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8357,7 +8360,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8375,7 +8378,7 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>20</v>
@@ -8392,10 +8395,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8421,13 +8424,13 @@
         <v>160</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8477,7 +8480,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8495,7 +8498,7 @@
         <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
@@ -8512,10 +8515,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8541,14 +8544,14 @@
         <v>110</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8597,7 +8600,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8615,7 +8618,7 @@
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -8632,10 +8635,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8661,14 +8664,14 @@
         <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8717,7 +8720,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8735,7 +8738,7 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
@@ -8752,10 +8755,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8778,19 +8781,19 @@
         <v>91</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8839,7 +8842,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8857,7 +8860,7 @@
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8874,20 +8877,20 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>90</v>
@@ -8902,19 +8905,19 @@
         <v>91</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>20</v>
@@ -8939,11 +8942,11 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y56" s="2"/>
       <c r="Z56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
@@ -8961,7 +8964,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8979,7 +8982,7 @@
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8996,13 +8999,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>20</v>
@@ -9024,19 +9027,19 @@
         <v>91</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -9061,13 +9064,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -9085,7 +9088,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9103,7 +9106,7 @@
         <v>20</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
@@ -9120,13 +9123,13 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>20</v>
@@ -9148,19 +9151,19 @@
         <v>91</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9185,13 +9188,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -9209,7 +9212,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9227,7 +9230,7 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -9244,10 +9247,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9273,16 +9276,16 @@
         <v>160</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9331,7 +9334,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9349,7 +9352,7 @@
         <v>20</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>20</v>
@@ -9366,14 +9369,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9392,19 +9395,19 @@
         <v>20</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9453,7 +9456,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>90</v>
@@ -9468,30 +9471,30 @@
         <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP60" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9606,14 +9609,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9635,13 +9638,13 @@
         <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9691,7 +9694,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9726,14 +9729,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9755,16 +9758,16 @@
         <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>20</v>
@@ -9813,7 +9816,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9848,10 +9851,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9874,13 +9877,13 @@
         <v>20</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9907,13 +9910,13 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9931,7 +9934,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9946,30 +9949,30 @@
         <v>102</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9992,19 +9995,19 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>20</v>
@@ -10029,13 +10032,13 @@
         <v>20</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>20</v>
@@ -10053,7 +10056,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -10071,35 +10074,35 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>90</v>
@@ -10114,19 +10117,19 @@
         <v>91</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10175,7 +10178,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10190,30 +10193,30 @@
         <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10239,14 +10242,14 @@
         <v>160</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10295,7 +10298,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10313,16 +10316,16 @@
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>20</v>
@@ -10330,10 +10333,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10359,14 +10362,14 @@
         <v>160</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10415,7 +10418,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10433,16 +10436,16 @@
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>20</v>
@@ -10450,10 +10453,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10476,19 +10479,19 @@
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10537,7 +10540,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>90</v>
@@ -10555,13 +10558,13 @@
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10572,10 +10575,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10598,13 +10601,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10655,7 +10658,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10670,30 +10673,30 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10719,16 +10722,16 @@
         <v>104</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10777,7 +10780,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10795,27 +10798,27 @@
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10838,17 +10841,17 @@
         <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10873,13 +10876,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10897,7 +10900,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10915,13 +10918,13 @@
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>20</v>
@@ -10932,10 +10935,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10958,13 +10961,13 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11015,7 +11018,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -11033,13 +11036,13 @@
         <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -11050,10 +11053,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11168,14 +11171,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11197,13 +11200,13 @@
         <v>135</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11253,7 +11256,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11288,14 +11291,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11317,16 +11320,16 @@
         <v>135</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -11375,7 +11378,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11410,10 +11413,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11439,16 +11442,16 @@
         <v>160</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11497,7 +11500,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11515,16 +11518,16 @@
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>20</v>
@@ -11532,10 +11535,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11561,14 +11564,14 @@
         <v>110</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11593,13 +11596,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11617,7 +11620,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11635,13 +11638,13 @@
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
@@ -11652,10 +11655,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11678,16 +11681,16 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11713,13 +11716,13 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
@@ -11737,7 +11740,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11755,16 +11758,16 @@
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>20</v>
@@ -11772,10 +11775,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11798,19 +11801,19 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11859,7 +11862,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>90</v>
@@ -11877,13 +11880,13 @@
         <v>20</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>20</v>
@@ -11894,10 +11897,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12012,14 +12015,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12041,13 +12044,13 @@
         <v>135</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -12097,7 +12100,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -12132,14 +12135,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12161,16 +12164,16 @@
         <v>135</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -12219,7 +12222,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12254,10 +12257,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12283,14 +12286,14 @@
         <v>160</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12339,7 +12342,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12357,13 +12360,13 @@
         <v>20</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -12374,14 +12377,14 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
@@ -12400,17 +12403,17 @@
         <v>91</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -12459,7 +12462,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>90</v>
@@ -12477,13 +12480,13 @@
         <v>20</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>20</v>
@@ -12494,10 +12497,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12520,17 +12523,17 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
@@ -12555,13 +12558,13 @@
         <v>20</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>20</v>
@@ -12579,7 +12582,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12597,13 +12600,13 @@
         <v>20</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
@@ -12614,14 +12617,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12640,19 +12643,19 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12701,7 +12704,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12713,33 +12716,33 @@
         <v>20</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AP87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12854,14 +12857,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12883,13 +12886,13 @@
         <v>135</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12939,7 +12942,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12974,14 +12977,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13003,16 +13006,16 @@
         <v>135</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>20</v>
@@ -13061,7 +13064,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -13096,10 +13099,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13122,13 +13125,13 @@
         <v>91</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13179,7 +13182,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13197,27 +13200,27 @@
         <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP91" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13240,19 +13243,19 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -13277,13 +13280,13 @@
         <v>20</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
@@ -13301,7 +13304,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13319,27 +13322,27 @@
         <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13362,17 +13365,17 @@
         <v>20</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13397,13 +13400,13 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -13421,7 +13424,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13439,16 +13442,16 @@
         <v>20</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>20</v>
@@ -13456,10 +13459,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13482,19 +13485,19 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>20</v>
@@ -13519,13 +13522,13 @@
         <v>20</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>20</v>
@@ -13543,7 +13546,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13561,27 +13564,27 @@
         <v>20</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13604,19 +13607,19 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>20</v>
@@ -13641,13 +13644,13 @@
         <v>20</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>20</v>
@@ -13665,7 +13668,7 @@
         <v>20</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13683,13 +13686,13 @@
         <v>20</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>20</v>
@@ -13700,10 +13703,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13729,16 +13732,16 @@
         <v>160</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13787,7 +13790,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13796,7 +13799,7 @@
         <v>90</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>102</v>
@@ -13805,16 +13808,16 @@
         <v>20</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AP96" t="s" s="2">
         <v>20</v>
@@ -13822,10 +13825,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13851,14 +13854,14 @@
         <v>160</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -13907,7 +13910,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13925,13 +13928,13 @@
         <v>20</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>20</v>
@@ -13942,10 +13945,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13968,19 +13971,19 @@
         <v>91</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -14029,7 +14032,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -14038,7 +14041,7 @@
         <v>90</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>102</v>
@@ -14047,13 +14050,13 @@
         <v>20</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>20</v>
@@ -14064,10 +14067,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14090,17 +14093,17 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>20</v>
@@ -14149,7 +14152,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -14167,13 +14170,13 @@
         <v>20</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>20</v>
@@ -14184,10 +14187,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14302,14 +14305,14 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
@@ -14331,13 +14334,13 @@
         <v>135</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14387,7 +14390,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14422,14 +14425,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14451,16 +14454,16 @@
         <v>135</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>20</v>
@@ -14509,7 +14512,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14544,10 +14547,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14573,10 +14576,10 @@
         <v>160</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14627,7 +14630,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>90</v>
@@ -14645,13 +14648,13 @@
         <v>20</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>20</v>
@@ -14662,10 +14665,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14688,19 +14691,19 @@
         <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>20</v>
@@ -14749,7 +14752,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>90</v>
@@ -14767,13 +14770,13 @@
         <v>20</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>20</v>
